--- a/biology/Zoologie/Fifi_le_pékinois/Fifi_le_pékinois.xlsx
+++ b/biology/Zoologie/Fifi_le_pékinois/Fifi_le_pékinois.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fifi_le_p%C3%A9kinois</t>
+          <t>Fifi_le_pékinois</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Fifi le pékinois (ou simplement Fifi, Fifi the Peke en VO)[1] est un personnage de fiction de l'univers Mickey Mouse créé en 1932 pour les studios Disney. Cette petite chienne est apparue aux côtés de Minnie Mouse tout d'abord dans le comic strip de Floyd Gottfredson Happy Ending[2] qui est basé sur le court-métrage Le Premier Amour (Puppy Love) qui est diffusé un an après. Elle est devenue le « flirt » régulier de Pluto ; elle fut remplacée peu à peu par Dinah le teckel.
+Fifi le pékinois (ou simplement Fifi, Fifi the Peke en VO) est un personnage de fiction de l'univers Mickey Mouse créé en 1932 pour les studios Disney. Cette petite chienne est apparue aux côtés de Minnie Mouse tout d'abord dans le comic strip de Floyd Gottfredson Happy Ending qui est basé sur le court-métrage Le Premier Amour (Puppy Love) qui est diffusé un an après. Elle est devenue le « flirt » régulier de Pluto ; elle fut remplacée peu à peu par Dinah le teckel.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fifi_le_p%C3%A9kinois</t>
+          <t>Fifi_le_pékinois</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1933 : Le Premier Amour
 1934 : Un enlèvement de chien (The Dognapper )
